--- a/SPEKTRAL_ANALİZ/EXCELLER/marmara_ereglisi_tudes_ssh_model.xlsx
+++ b/SPEKTRAL_ANALİZ/EXCELLER/marmara_ereglisi_tudes_ssh_model.xlsx
@@ -465,7 +465,7 @@
         <v>0.4219011408730159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4217879558408245</v>
+        <v>0.3619574365642933</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>0.4295352822580645</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3958913531821472</v>
+        <v>0.352278777694855</v>
       </c>
     </row>
     <row r="4">
@@ -493,7 +493,7 @@
         <v>0.3495679398148148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3692697831312606</v>
+        <v>0.3470085576558817</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>0.3567376986909771</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3620724347793059</v>
+        <v>0.3457248475329802</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         <v>38292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3367310503564609</v>
+        <v>0.3345384191836214</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3714301088588944</v>
+        <v>0.3465477121259958</v>
       </c>
     </row>
     <row r="7">
@@ -532,10 +532,10 @@
         <v>38322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.278690052251413</v>
+        <v>0.2787203018325047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3769833915300436</v>
+        <v>0.3488530286520066</v>
       </c>
     </row>
     <row r="8">
@@ -546,10 +546,10 @@
         <v>38353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3378901387148696</v>
+        <v>0.3223431954610596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3641516267176704</v>
+        <v>0.3538295441141167</v>
       </c>
     </row>
     <row r="9">
@@ -560,10 +560,10 @@
         <v>38384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3285967129048778</v>
+        <v>0.3502784980877396</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3410941008134078</v>
+        <v>0.3623400840908114</v>
       </c>
     </row>
     <row r="10">
@@ -574,10 +574,10 @@
         <v>38412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3441532874388884</v>
+        <v>0.3329835839629048</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3317643943168367</v>
+        <v>0.3724802677347024</v>
       </c>
     </row>
     <row r="11">
@@ -591,7 +591,7 @@
         <v>0.3484751629221458</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3516783554440909</v>
+        <v>0.3796989609095359</v>
       </c>
     </row>
     <row r="12">
@@ -605,7 +605,7 @@
         <v>0.4002390038179835</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3907023314470769</v>
+        <v>0.3798380163178051</v>
       </c>
     </row>
     <row r="13">
@@ -619,7 +619,7 @@
         <v>0.4098352556360708</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4205278468430202</v>
+        <v>0.3724565372954178</v>
       </c>
     </row>
     <row r="14">
@@ -633,7 +633,7 @@
         <v>0.448599126344086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4200705203997288</v>
+        <v>0.3613388398899171</v>
       </c>
     </row>
     <row r="15">
@@ -643,12 +643,8 @@
       <c r="B15" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.4637112455197133</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3941739177410516</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -661,7 +657,7 @@
         <v>0.4049269675925926</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3675523476901649</v>
+        <v>0.3463899609815055</v>
       </c>
     </row>
     <row r="17">
@@ -675,7 +671,7 @@
         <v>0.3408587428958681</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3603549993382102</v>
+        <v>0.345106250858604</v>
       </c>
     </row>
     <row r="18">
@@ -686,10 +682,10 @@
         <v>38657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3863727199432405</v>
+        <v>0.3756385581498681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3697126734177987</v>
+        <v>0.3459291154516196</v>
       </c>
     </row>
     <row r="19">
@@ -700,10 +696,10 @@
         <v>38687</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4174443886966772</v>
+        <v>0.3975041150524972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3752659560889479</v>
+        <v>0.3482344319776304</v>
       </c>
     </row>
     <row r="20">
@@ -713,12 +709,8 @@
       <c r="B20" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.2293652456365903</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.3624341912765747</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -728,10 +720,10 @@
         <v>38749</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2678845486111111</v>
+        <v>0.2682264870169082</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3393766653723121</v>
+        <v>0.3617214874164352</v>
       </c>
     </row>
     <row r="22">
@@ -745,7 +737,7 @@
         <v>0.3992541890681004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3300469588757411</v>
+        <v>0.3718616710603263</v>
       </c>
     </row>
     <row r="23">
@@ -759,7 +751,7 @@
         <v>0.361926206814522</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3499609200029952</v>
+        <v>0.3790803642351597</v>
       </c>
     </row>
     <row r="24">
@@ -773,7 +765,7 @@
         <v>0.3533784576125915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3889848960059812</v>
+        <v>0.3792194196434289</v>
       </c>
     </row>
     <row r="25">
@@ -787,7 +779,7 @@
         <v>0.3903103613123993</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4188104114019245</v>
+        <v>0.3718379406210416</v>
       </c>
     </row>
     <row r="26">
@@ -801,7 +793,7 @@
         <v>0.3959705421146953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4183530849586332</v>
+        <v>0.3607202432155409</v>
       </c>
     </row>
     <row r="27">
@@ -811,12 +803,8 @@
       <c r="B27" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.4516969232117812</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.3924564822999559</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -829,7 +817,7 @@
         <v>0.3509605324074074</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3658349122490693</v>
+        <v>0.3457713643071293</v>
       </c>
     </row>
     <row r="29">
@@ -843,7 +831,7 @@
         <v>0.3385754928315412</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3586375638971145</v>
+        <v>0.3444876541842277</v>
       </c>
     </row>
     <row r="30">
@@ -857,7 +845,7 @@
         <v>0.298792230273752</v>
       </c>
       <c r="D30" t="n">
-        <v>0.367995237976703</v>
+        <v>0.3453105187772434</v>
       </c>
     </row>
     <row r="31">
@@ -867,12 +855,8 @@
       <c r="B31" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.1557000452455835</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.3735485206478523</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -881,12 +865,8 @@
       <c r="B32" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.2412188518246986</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.3607167558354791</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -896,10 +876,10 @@
         <v>39114</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2713718578587562</v>
+        <v>0.2714073241285974</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3376592299312166</v>
+        <v>0.361102890742059</v>
       </c>
     </row>
     <row r="34">
@@ -913,7 +893,7 @@
         <v>0.2897687509739754</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3283295234346454</v>
+        <v>0.3712430743859501</v>
       </c>
     </row>
     <row r="35">
@@ -923,12 +903,8 @@
       <c r="B35" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.2193290715122237</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3482434845618997</v>
-      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -941,7 +917,7 @@
         <v>0.339494098151926</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3872674605648856</v>
+        <v>0.3786008229690527</v>
       </c>
     </row>
     <row r="37">
@@ -955,7 +931,7 @@
         <v>0.3772454357890499</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4170929759608289</v>
+        <v>0.3712193439466654</v>
       </c>
     </row>
     <row r="38">
@@ -969,7 +945,7 @@
         <v>0.3397272134033179</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4166356495175375</v>
+        <v>0.3601016465411647</v>
       </c>
     </row>
     <row r="39">
@@ -983,7 +959,7 @@
         <v>0.3648208204060238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3907390468588604</v>
+        <v>0.3504229876717265</v>
       </c>
     </row>
     <row r="40">
@@ -994,10 +970,10 @@
         <v>39326</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2706279035829308</v>
+        <v>0.270882340616308</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3641174768079736</v>
+        <v>0.3451527676327531</v>
       </c>
     </row>
     <row r="41">
@@ -1011,7 +987,7 @@
         <v>0.2665054083461342</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3569201284560189</v>
+        <v>0.3438690575098515</v>
       </c>
     </row>
     <row r="42">
@@ -1022,10 +998,10 @@
         <v>39387</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3011022969733567</v>
+        <v>0.3010127136400234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3662778025356074</v>
+        <v>0.3446919221028671</v>
       </c>
     </row>
     <row r="43">
@@ -1035,12 +1011,8 @@
       <c r="B43" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.2382015057659342</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.3718310852067566</v>
-      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1049,12 +1021,8 @@
       <c r="B44" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.238529815599898</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.3589993203943834</v>
-      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1064,11 +1032,9 @@
         <v>39479</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09177776040280726</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.3359417944901208</v>
-      </c>
+        <v>0.3250396776698056</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1078,10 +1044,10 @@
         <v>39508</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3250396776698056</v>
+        <v>0.376877490942029</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3266120879935498</v>
+        <v>0.3604842940676828</v>
       </c>
     </row>
     <row r="47">
@@ -1092,10 +1058,10 @@
         <v>39539</v>
       </c>
       <c r="C47" t="n">
-        <v>0.376877490942029</v>
+        <v>0.3182604726191683</v>
       </c>
       <c r="D47" t="n">
-        <v>0.346526049120804</v>
+        <v>0.3706244777115739</v>
       </c>
     </row>
     <row r="48">
@@ -1106,10 +1072,10 @@
         <v>39569</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3182604726191683</v>
+        <v>0.3728290177917896</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3855500251237897</v>
+        <v>0.3778431708864073</v>
       </c>
     </row>
     <row r="49">
@@ -1120,10 +1086,10 @@
         <v>39600</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3728290177917896</v>
+        <v>0.3364805204924419</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4153755405197333</v>
+        <v>0.3779822262946765</v>
       </c>
     </row>
     <row r="50">
@@ -1134,10 +1100,10 @@
         <v>39630</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3364805204924419</v>
+        <v>0.3139346072931276</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4149182140764419</v>
+        <v>0.3706007472722893</v>
       </c>
     </row>
     <row r="51">
@@ -1148,10 +1114,10 @@
         <v>39661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3139346072931276</v>
+        <v>0.3083096316425121</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3890216114177647</v>
+        <v>0.3594830498667886</v>
       </c>
     </row>
     <row r="52">
@@ -1161,11 +1127,9 @@
       <c r="B52" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="C52" t="n">
-        <v>0.3083096316425121</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>0.3624000413668779</v>
+        <v>0.3498043909973503</v>
       </c>
     </row>
     <row r="53">
@@ -1176,11 +1140,9 @@
         <v>39722</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2341048387096774</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.3552026930149232</v>
-      </c>
+        <v>0.2923379629629629</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1190,10 +1152,10 @@
         <v>39753</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2924983796296296</v>
+        <v>0.3641635344503946</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3645603670945117</v>
+        <v>0.3432504608354753</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1166,10 @@
         <v>39783</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3641635344503946</v>
+        <v>0.3289503156925156</v>
       </c>
       <c r="D55" t="n">
-        <v>0.370113649765661</v>
+        <v>0.344073325428491</v>
       </c>
     </row>
     <row r="56">
@@ -1218,10 +1180,10 @@
         <v>39814</v>
       </c>
       <c r="C56" t="n">
-        <v>0.313538682464028</v>
+        <v>0.3606103145953358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3572818849532878</v>
+        <v>0.3463786419545018</v>
       </c>
     </row>
     <row r="57">
@@ -1232,10 +1194,10 @@
         <v>39845</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3613232403756957</v>
+        <v>0.3072439599612636</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3342243590490251</v>
+        <v>0.3513551574166119</v>
       </c>
     </row>
     <row r="58">
@@ -1246,10 +1208,10 @@
         <v>39873</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3072439599612636</v>
+        <v>0.305433449074074</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3248946525524541</v>
+        <v>0.3598656973933066</v>
       </c>
     </row>
     <row r="59">
@@ -1260,10 +1222,10 @@
         <v>39904</v>
       </c>
       <c r="C59" t="n">
-        <v>0.305433449074074</v>
+        <v>0.3609258578431373</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3448086136797081</v>
+        <v>0.3700058810371977</v>
       </c>
     </row>
     <row r="60">
@@ -1274,10 +1236,10 @@
         <v>39934</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3609258578431373</v>
+        <v>0.4180142922097876</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3838325896826943</v>
+        <v>0.377224574212031</v>
       </c>
     </row>
     <row r="61">
@@ -1288,10 +1250,10 @@
         <v>39965</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4180142922097876</v>
+        <v>0.3786562051971327</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4136581050786376</v>
+        <v>0.3773636296203003</v>
       </c>
     </row>
     <row r="62">
@@ -1302,10 +1264,10 @@
         <v>39995</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3786562051971327</v>
+        <v>0.3152833781362007</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4132007786353464</v>
+        <v>0.3699821505979131</v>
       </c>
     </row>
     <row r="63">
@@ -1316,10 +1278,10 @@
         <v>40026</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3152833781362007</v>
+        <v>0.3201080995644854</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3873041759766691</v>
+        <v>0.3588644531924124</v>
       </c>
     </row>
     <row r="64">
@@ -1330,10 +1292,10 @@
         <v>40057</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3201080995644854</v>
+        <v>0.397633633406293</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3606826059257823</v>
+        <v>0.3491857943229741</v>
       </c>
     </row>
     <row r="65">
@@ -1344,10 +1306,10 @@
         <v>40087</v>
       </c>
       <c r="C65" t="n">
-        <v>0.397633633406293</v>
+        <v>0.3860082175925926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3534852575738276</v>
+        <v>0.3439155742840007</v>
       </c>
     </row>
     <row r="66">
@@ -1357,11 +1319,9 @@
       <c r="B66" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="C66" t="n">
-        <v>0.3860082175925926</v>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>0.362842931653416</v>
+        <v>0.3426318641610991</v>
       </c>
     </row>
     <row r="67">
@@ -1372,11 +1332,9 @@
         <v>40148</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6377586038328587</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.3683962143245653</v>
-      </c>
+        <v>0.3824327277227316</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1385,11 +1343,9 @@
       <c r="B68" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="C68" t="n">
-        <v>0.6167135492371116</v>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>0.3555644495121919</v>
+        <v>0.3457600452801255</v>
       </c>
     </row>
     <row r="69">
@@ -1400,11 +1356,9 @@
         <v>40210</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6563430057843295</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.3325069236079295</v>
-      </c>
+        <v>0.4001675612377532</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1414,10 +1368,10 @@
         <v>40238</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4025624366916004</v>
+        <v>0.3823570258746889</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3231772171113586</v>
+        <v>0.3592471007189303</v>
       </c>
     </row>
     <row r="71">
@@ -1427,11 +1381,9 @@
       <c r="B71" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="C71" t="n">
-        <v>0.3834109322390573</v>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>0.3430911782386124</v>
+        <v>0.3693872843628215</v>
       </c>
     </row>
     <row r="72">
@@ -1441,12 +1393,8 @@
       <c r="B72" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="C72" t="n">
-        <v>0.4911516363924762</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.3821151542415987</v>
-      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1455,12 +1403,8 @@
       <c r="B73" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="C73" t="n">
-        <v>0.5273097279733149</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.411940669637542</v>
-      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1469,12 +1413,8 @@
       <c r="B74" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="C74" t="n">
-        <v>0.4907236539660277</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.4114833431942506</v>
-      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1484,11 +1424,9 @@
         <v>40391</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4990612236495389</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.3855867405355736</v>
-      </c>
+        <v>0.4499984163916445</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1497,11 +1435,9 @@
       <c r="B76" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="C76" t="n">
-        <v>0.4811418725949976</v>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>0.3589651704846867</v>
+        <v>0.348567197648598</v>
       </c>
     </row>
     <row r="77">
@@ -1511,12 +1447,8 @@
       <c r="B77" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.7251661045563833</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.3517678221327319</v>
-      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1525,12 +1457,8 @@
       <c r="B78" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.6994054116344606</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.3611254962123204</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1540,11 +1468,9 @@
         <v>40513</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8443870144543006</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.3666787788834696</v>
-      </c>
+        <v>0.381850744047619</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1554,10 +1480,10 @@
         <v>40544</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9075920106907922</v>
+        <v>0.3467539771276117</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3538470140710965</v>
+        <v>0.3451414486057494</v>
       </c>
     </row>
     <row r="81">
@@ -1567,11 +1493,9 @@
       <c r="B81" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="C81" t="n">
-        <v>0.4095828618090846</v>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>0.3307894881668339</v>
+        <v>0.3501179640678594</v>
       </c>
     </row>
     <row r="82">
@@ -1582,11 +1506,9 @@
         <v>40603</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2400730286738351</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.3214597816702629</v>
-      </c>
+        <v>0.3129476851851852</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1596,10 +1518,10 @@
         <v>40634</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3129476851851852</v>
+        <v>0.3845413306451613</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3413737427975167</v>
+        <v>0.3687686876884453</v>
       </c>
     </row>
     <row r="84">
@@ -1610,10 +1532,10 @@
         <v>40664</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3845413306451613</v>
+        <v>0.4261486362721417</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3803977188005024</v>
+        <v>0.3759873808632787</v>
       </c>
     </row>
     <row r="85">
@@ -1623,11 +1545,9 @@
       <c r="B85" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="C85" t="n">
-        <v>0.4261486362721417</v>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>0.4102232341964464</v>
+        <v>0.3761264362715479</v>
       </c>
     </row>
     <row r="86">
@@ -1638,11 +1558,9 @@
         <v>40725</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4547762588189043</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4097659077531549</v>
-      </c>
+        <v>0.3740031702898551</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1652,10 +1570,10 @@
         <v>40756</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3740031702898551</v>
+        <v>0.3517652777777778</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3838693050944776</v>
+        <v>0.35762725984366</v>
       </c>
     </row>
     <row r="88">
@@ -1666,10 +1584,10 @@
         <v>40787</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3517652777777778</v>
+        <v>0.2822185863847856</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3572477350435911</v>
+        <v>0.3479486009742216</v>
       </c>
     </row>
     <row r="89">
@@ -1679,11 +1597,9 @@
       <c r="B89" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="C89" t="n">
-        <v>0.2822185863847856</v>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>0.3500503866916362</v>
+        <v>0.3426783809352483</v>
       </c>
     </row>
     <row r="90">
@@ -1694,11 +1610,9 @@
         <v>40848</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1706122332930757</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.3594080607712247</v>
-      </c>
+        <v>0.2565443118952498</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1707,11 +1621,9 @@
       <c r="B91" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="C91" t="n">
-        <v>0.2556240406342528</v>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>0.364961343442374</v>
+        <v>0.3422175354053624</v>
       </c>
     </row>
     <row r="92">
@@ -1721,12 +1633,8 @@
       <c r="B92" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="C92" t="n">
-        <v>0.234085816970547</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.3521295786300007</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1735,12 +1643,8 @@
       <c r="B93" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="C93" t="n">
-        <v>0.1644078273363318</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.3290720527257383</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1750,11 +1654,9 @@
         <v>40969</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1561829237071173</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.3197423462291671</v>
-      </c>
+        <v>0.3916072307504874</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1764,10 +1666,10 @@
         <v>41000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3922048611111111</v>
+        <v>0.4098898664059955</v>
       </c>
       <c r="D95" t="n">
-        <v>0.339656307356421</v>
+        <v>0.3681500910140689</v>
       </c>
     </row>
     <row r="96">
@@ -1778,10 +1680,10 @@
         <v>41030</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4098898664059955</v>
+        <v>0.3543039200885668</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3786802833594073</v>
+        <v>0.3753687841889024</v>
       </c>
     </row>
     <row r="97">
@@ -1792,10 +1694,10 @@
         <v>41061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3543039200885668</v>
+        <v>0.3823015671263831</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4085057987553507</v>
+        <v>0.3755078395971717</v>
       </c>
     </row>
     <row r="98">
@@ -1806,10 +1708,10 @@
         <v>41091</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3823015671263831</v>
+        <v>0.377553417236885</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4080484723120593</v>
+        <v>0.3681263605747844</v>
       </c>
     </row>
     <row r="99">
@@ -1820,10 +1722,10 @@
         <v>41122</v>
       </c>
       <c r="C99" t="n">
-        <v>0.377553417236885</v>
+        <v>0.3109060606060606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3821518696533823</v>
+        <v>0.3570086631692838</v>
       </c>
     </row>
     <row r="100">
@@ -1834,10 +1736,10 @@
         <v>41153</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3109060606060606</v>
+        <v>0.3716160112824295</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3555302996024954</v>
+        <v>0.3473300042998456</v>
       </c>
     </row>
     <row r="101">
@@ -1848,10 +1750,10 @@
         <v>41183</v>
       </c>
       <c r="C101" t="n">
-        <v>0.372004640296979</v>
+        <v>0.3106444142512077</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3483329512505406</v>
+        <v>0.3420597842608721</v>
       </c>
     </row>
     <row r="102">
@@ -1862,10 +1764,10 @@
         <v>41214</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3106444142512077</v>
+        <v>0.4266324535679374</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3576906253301292</v>
+        <v>0.3407760741379706</v>
       </c>
     </row>
     <row r="103">
@@ -1876,10 +1778,10 @@
         <v>41244</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4266324535679374</v>
+        <v>0.386833434288225</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3632439080012783</v>
+        <v>0.3415989387309862</v>
       </c>
     </row>
     <row r="104">
@@ -1890,10 +1792,10 @@
         <v>41275</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3915668682795699</v>
+        <v>0.3918737925543024</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3504121431889053</v>
+        <v>0.343904255256997</v>
       </c>
     </row>
     <row r="105">
@@ -1904,10 +1806,10 @@
         <v>41306</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3925456349206349</v>
+        <v>0.423673154956427</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3273546172846426</v>
+        <v>0.3488807707191071</v>
       </c>
     </row>
     <row r="106">
@@ -1918,10 +1820,10 @@
         <v>41334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4412532258064517</v>
+        <v>0.4035523415312546</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3180249107880715</v>
+        <v>0.3573913106958018</v>
       </c>
     </row>
     <row r="107">
@@ -1931,11 +1833,9 @@
       <c r="B107" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="C107" t="n">
-        <v>0.4081481874908505</v>
-      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>0.3379388719153258</v>
+        <v>0.3675314943396929</v>
       </c>
     </row>
     <row r="108">
@@ -1945,12 +1845,8 @@
       <c r="B108" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="C108" t="n">
-        <v>0.4706467634798192</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.3769628479183116</v>
-      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -1960,11 +1856,9 @@
         <v>41426</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4708651706083771</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.4067883633142549</v>
-      </c>
+        <v>0.4332090553455156</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -1974,10 +1868,10 @@
         <v>41456</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4332090553455156</v>
+        <v>0.3424990295031056</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4063310368709636</v>
+        <v>0.3675077639004083</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1881,9 @@
       <c r="B111" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="C111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>0.3976946593915344</v>
+      </c>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -2008,10 +1904,10 @@
         <v>41548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3424990295031056</v>
+        <v>0.372973272344766</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3466155158094449</v>
+        <v>0.3563900664949076</v>
       </c>
     </row>
     <row r="114">
@@ -2022,10 +1918,10 @@
         <v>41579</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3976946593915344</v>
+        <v>0.3021085231193927</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3559731898890334</v>
+        <v>0.3467114076254694</v>
       </c>
     </row>
     <row r="115">
@@ -2036,11 +1932,9 @@
         <v>41609</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2039622175471404</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.3615264725601827</v>
-      </c>
+        <v>0.2814760937743494</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2050,10 +1944,10 @@
         <v>41640</v>
       </c>
       <c r="C116" t="n">
-        <v>0.372973272344766</v>
+        <v>0.3915633756038647</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3486947077478096</v>
+        <v>0.3401574774635944</v>
       </c>
     </row>
     <row r="117">
@@ -2064,10 +1958,10 @@
         <v>41671</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3021085231193927</v>
+        <v>0.3660662400654512</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3256371818435467</v>
+        <v>0.34098034205661</v>
       </c>
     </row>
     <row r="118">
@@ -2078,10 +1972,10 @@
         <v>41699</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2814760937743494</v>
+        <v>0.4116687837876697</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3163074753469759</v>
+        <v>0.3432856585826208</v>
       </c>
     </row>
     <row r="119">
@@ -2091,11 +1985,9 @@
       <c r="B119" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="C119" t="n">
-        <v>0.3915633756038647</v>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>0.3362214364742298</v>
+        <v>0.3482621740447309</v>
       </c>
     </row>
     <row r="120">
@@ -2106,10 +1998,10 @@
         <v>41760</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3660662400654512</v>
+        <v>0.4329064934938445</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3752454124772159</v>
+        <v>0.3567727140214257</v>
       </c>
     </row>
     <row r="121">
@@ -2120,10 +2012,10 @@
         <v>41791</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4116687837876697</v>
+        <v>0.4322076004611331</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4050709278731591</v>
+        <v>0.3669128976653167</v>
       </c>
     </row>
     <row r="122">
@@ -2134,11 +2026,9 @@
         <v>41821</v>
       </c>
       <c r="C122" t="n">
-        <v>0.450286765622565</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.4046136014298682</v>
-      </c>
+        <v>0.3421125192012289</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2148,10 +2038,10 @@
         <v>41852</v>
       </c>
       <c r="C123" t="n">
-        <v>0.4329064934938445</v>
+        <v>0.3757645352986386</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3787169987711907</v>
+        <v>0.3742706462484193</v>
       </c>
     </row>
     <row r="124">
@@ -2162,10 +2052,10 @@
         <v>41883</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4322076004611331</v>
+        <v>0.4076073131974254</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3520954287203041</v>
+        <v>0.3668891672260322</v>
       </c>
     </row>
     <row r="125">
@@ -2176,10 +2066,10 @@
         <v>41913</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3421125192012289</v>
+        <v>0.4236679727423504</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3448980803683493</v>
+        <v>0.3557714698205315</v>
       </c>
     </row>
     <row r="126">
@@ -2190,10 +2080,10 @@
         <v>41944</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3757645352986386</v>
+        <v>0.4201441801604342</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3542557544479377</v>
+        <v>0.3460928109510931</v>
       </c>
     </row>
     <row r="127">
@@ -2204,10 +2094,10 @@
         <v>41974</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4076073131974254</v>
+        <v>0.3459747988298129</v>
       </c>
       <c r="D127" t="n">
-        <v>0.359809037119087</v>
+        <v>0.3408225909121197</v>
       </c>
     </row>
     <row r="128">
@@ -2218,10 +2108,10 @@
         <v>42005</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4243384700541783</v>
+        <v>0.3826975487927934</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3469772723067138</v>
+        <v>0.3395388807892182</v>
       </c>
     </row>
     <row r="129">
@@ -2232,10 +2122,10 @@
         <v>42036</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4383248360938579</v>
+        <v>0.3909569073448368</v>
       </c>
       <c r="D129" t="n">
-        <v>0.323919746402451</v>
+        <v>0.3403617453822337</v>
       </c>
     </row>
     <row r="130">
@@ -2246,10 +2136,10 @@
         <v>42064</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3459747988298129</v>
+        <v>0.3929059562595885</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3145900399058802</v>
+        <v>0.3426670619082446</v>
       </c>
     </row>
     <row r="131">
@@ -2260,10 +2150,10 @@
         <v>42095</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3826975487927934</v>
+        <v>0.404855439207955</v>
       </c>
       <c r="D131" t="n">
-        <v>0.334504001033134</v>
+        <v>0.3476435773703547</v>
       </c>
     </row>
     <row r="132">
@@ -2274,10 +2164,10 @@
         <v>42125</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3909569073448368</v>
+        <v>0.4125531316062322</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3735279770361203</v>
+        <v>0.3561541173470494</v>
       </c>
     </row>
     <row r="133">
@@ -2288,10 +2178,10 @@
         <v>42156</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3890489721326044</v>
+        <v>0.3890871575575899</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4033534924320638</v>
+        <v>0.3662943009909403</v>
       </c>
     </row>
     <row r="134">
@@ -2302,10 +2192,10 @@
         <v>42186</v>
       </c>
       <c r="C134" t="n">
-        <v>0.404855439207955</v>
+        <v>0.3790729724395797</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4028961659887721</v>
+        <v>0.3735129941657738</v>
       </c>
     </row>
     <row r="135">
@@ -2316,10 +2206,10 @@
         <v>42217</v>
       </c>
       <c r="C135" t="n">
-        <v>0.4125531316062322</v>
+        <v>0.3398318206146278</v>
       </c>
       <c r="D135" t="n">
-        <v>0.3769995633300954</v>
+        <v>0.3736520495740431</v>
       </c>
     </row>
     <row r="136">
@@ -2329,11 +2219,9 @@
       <c r="B136" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="C136" t="n">
-        <v>0.3890871575575899</v>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>0.3503779932792084</v>
+        <v>0.3662705705516558</v>
       </c>
     </row>
     <row r="137">
@@ -2344,10 +2232,10 @@
         <v>42278</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3790729724395797</v>
+        <v>0.337627054297032</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3431806449272536</v>
+        <v>0.355152873146155</v>
       </c>
     </row>
     <row r="138">
@@ -2358,10 +2246,10 @@
         <v>42309</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3398318206146278</v>
+        <v>0.3214116181536928</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3525383190068422</v>
+        <v>0.345474214276717</v>
       </c>
     </row>
     <row r="139">
@@ -2372,11 +2260,9 @@
         <v>42339</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8596620801660035</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.3580916016779914</v>
-      </c>
+        <v>0.421698879494156</v>
+      </c>
+      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2386,10 +2272,10 @@
         <v>42370</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3398838719666286</v>
+        <v>0.3812247987117552</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3452598368656183</v>
+        <v>0.3389202841148419</v>
       </c>
     </row>
     <row r="141">
@@ -2400,10 +2286,10 @@
         <v>42401</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3211606708251593</v>
+        <v>0.4181994993766557</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3222023109613557</v>
+        <v>0.3397431487078576</v>
       </c>
     </row>
     <row r="142">
@@ -2414,10 +2300,10 @@
         <v>42430</v>
       </c>
       <c r="C142" t="n">
-        <v>0.421698879494156</v>
+        <v>0.4377860983018592</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3128726044647845</v>
+        <v>0.3420484652338684</v>
       </c>
     </row>
     <row r="143">
@@ -2428,10 +2314,10 @@
         <v>42461</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3812247987117552</v>
+        <v>0.405212358292907</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3327865655920379</v>
+        <v>0.3470249806959785</v>
       </c>
     </row>
     <row r="144">
@@ -2442,10 +2328,10 @@
         <v>42491</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4181994993766557</v>
+        <v>0.3925177018016101</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3718105415950251</v>
+        <v>0.3555355206726732</v>
       </c>
     </row>
     <row r="145">
@@ -2456,10 +2342,10 @@
         <v>42522</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4377860983018592</v>
+        <v>0.3771340367904155</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4016360569909678</v>
+        <v>0.3656757043165643</v>
       </c>
     </row>
     <row r="146">
@@ -2470,10 +2356,10 @@
         <v>42552</v>
       </c>
       <c r="C146" t="n">
-        <v>0.405212358292907</v>
+        <v>0.2947054227918139</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4011787305476767</v>
+        <v>0.3728943974913976</v>
       </c>
     </row>
     <row r="147">
@@ -2484,10 +2370,10 @@
         <v>42583</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3925177018016101</v>
+        <v>0.3113459000339832</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3752821278889994</v>
+        <v>0.3730334528996668</v>
       </c>
     </row>
     <row r="148">
@@ -2497,11 +2383,9 @@
       <c r="B148" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="C148" t="n">
-        <v>0.3771340367904155</v>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>0.3486605578381131</v>
+        <v>0.3656519738772798</v>
       </c>
     </row>
     <row r="149">
@@ -2511,11 +2395,9 @@
       <c r="B149" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="C149" t="n">
-        <v>0.2947054227918139</v>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>0.341463209486158</v>
+        <v>0.354534276471779</v>
       </c>
     </row>
     <row r="150">
@@ -2525,11 +2407,9 @@
       <c r="B150" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="C150" t="n">
-        <v>0.3128034727182294</v>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>0.3508208835657464</v>
+        <v>0.3448556176023407</v>
       </c>
     </row>
     <row r="151">
@@ -2540,11 +2420,9 @@
         <v>42705</v>
       </c>
       <c r="C151" t="n">
-        <v>0.124439079937104</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.3563741662368958</v>
-      </c>
+        <v>0.2520584273828024</v>
+      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -2554,11 +2432,9 @@
         <v>42736</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1987462629959864</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.3435424014245225</v>
-      </c>
+        <v>0.3506806793117277</v>
+      </c>
+      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -2568,11 +2444,9 @@
         <v>42767</v>
       </c>
       <c r="C153" t="n">
-        <v>0.1773458351478492</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.3204848755202603</v>
-      </c>
+        <v>0.3422476882965519</v>
+      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -2582,11 +2456,9 @@
         <v>42795</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2423295550253212</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.3111551690236888</v>
-      </c>
+        <v>0.3680258990657088</v>
+      </c>
+      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -2596,10 +2468,10 @@
         <v>42826</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2520584273828024</v>
+        <v>0.447859375</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3310691301509427</v>
+        <v>0.3414298685594921</v>
       </c>
     </row>
     <row r="156">
@@ -2610,10 +2482,10 @@
         <v>42856</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3506806793117277</v>
+        <v>0.3347419507575757</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3700931061539289</v>
+        <v>0.3464063840216023</v>
       </c>
     </row>
     <row r="157">
@@ -2624,10 +2496,10 @@
         <v>42887</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3422476882965519</v>
+        <v>0.2859052824756279</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3999186215498724</v>
+        <v>0.3549169239982968</v>
       </c>
     </row>
     <row r="158">
@@ -2638,10 +2510,10 @@
         <v>42917</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3680258990657088</v>
+        <v>0.2874228322432398</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3994612951065812</v>
+        <v>0.3650571076421879</v>
       </c>
     </row>
     <row r="159">
@@ -2652,10 +2524,10 @@
         <v>42948</v>
       </c>
       <c r="C159" t="n">
-        <v>0.447859375</v>
+        <v>0.3257827554129928</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3735646924479042</v>
+        <v>0.3722758008170214</v>
       </c>
     </row>
     <row r="160">
@@ -2665,11 +2537,9 @@
       <c r="B160" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="C160" t="n">
-        <v>0.3347419507575757</v>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>0.3469431223970172</v>
+        <v>0.3724148562252907</v>
       </c>
     </row>
     <row r="161">
@@ -2680,10 +2550,10 @@
         <v>43009</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2845955144765628</v>
+        <v>0.2966321061939268</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3397457740450623</v>
+        <v>0.3650333772029035</v>
       </c>
     </row>
     <row r="162">
@@ -2693,11 +2563,9 @@
       <c r="B162" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="C162" t="n">
-        <v>0.2822765281698977</v>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>0.3491034481246509</v>
+        <v>0.3539156797974029</v>
       </c>
     </row>
     <row r="163">
@@ -2708,10 +2576,10 @@
         <v>43070</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3144623549591847</v>
+        <v>0.3381989489224544</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3546567307958001</v>
+        <v>0.3442370209279646</v>
       </c>
     </row>
     <row r="164">
@@ -2722,11 +2590,9 @@
         <v>43101</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1103648950686994</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.341824965983427</v>
-      </c>
+        <v>0.3836230507843411</v>
+      </c>
+      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -2736,10 +2602,10 @@
         <v>43132</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2966321061939268</v>
+        <v>0.4000213365539452</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3187674400791644</v>
+        <v>0.3376830907660895</v>
       </c>
     </row>
     <row r="166">
@@ -2750,11 +2616,9 @@
         <v>43160</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4691892219758191</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.3094377335825931</v>
-      </c>
+        <v>0.3886598342293907</v>
+      </c>
+      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -2764,10 +2628,10 @@
         <v>43191</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3383883963862225</v>
+        <v>0.350589463180189</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3293516947098466</v>
+        <v>0.340811271885116</v>
       </c>
     </row>
     <row r="168">
@@ -2778,10 +2642,10 @@
         <v>43221</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3836230507843411</v>
+        <v>0.3061306575720978</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3683756707128338</v>
+        <v>0.345787787347226</v>
       </c>
     </row>
     <row r="169">
@@ -2792,10 +2656,10 @@
         <v>43252</v>
       </c>
       <c r="C169" t="n">
-        <v>0.4000213365539452</v>
+        <v>0.2538892864479295</v>
       </c>
       <c r="D169" t="n">
-        <v>0.398201186108777</v>
+        <v>0.3542983273239207</v>
       </c>
     </row>
     <row r="170">
@@ -2806,10 +2670,10 @@
         <v>43282</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3886598342293907</v>
+        <v>0.2573696818730786</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3977438596654854</v>
+        <v>0.3644385109678116</v>
       </c>
     </row>
     <row r="171">
@@ -2820,10 +2684,10 @@
         <v>43313</v>
       </c>
       <c r="C171" t="n">
-        <v>0.350589463180189</v>
+        <v>0.2782386580567243</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3718472570068081</v>
+        <v>0.3716572041426452</v>
       </c>
     </row>
     <row r="172">
@@ -2834,10 +2698,10 @@
         <v>43344</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3070126235177865</v>
+        <v>0.3261333395903873</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3452256869559213</v>
+        <v>0.3717962595509144</v>
       </c>
     </row>
     <row r="173">
@@ -2847,11 +2711,9 @@
       <c r="B173" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="C173" t="n">
-        <v>0.2538892864479295</v>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>0.3380283386039666</v>
+        <v>0.3644147805285271</v>
       </c>
     </row>
     <row r="174">
@@ -2861,11 +2723,9 @@
       <c r="B174" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="C174" t="n">
-        <v>0.2573696818730786</v>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>0.3473860126835551</v>
+        <v>0.3532970831230266</v>
       </c>
     </row>
     <row r="175">
@@ -2876,10 +2736,10 @@
         <v>43435</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2782386580567243</v>
+        <v>0.2838390897196604</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3529392953547044</v>
+        <v>0.3436184242535883</v>
       </c>
     </row>
     <row r="176">
@@ -2890,10 +2750,10 @@
         <v>43466</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3252212482468443</v>
+        <v>0.3315284449509117</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3401075305423317</v>
+        <v>0.3383482042146149</v>
       </c>
     </row>
     <row r="177">
@@ -2904,11 +2764,9 @@
         <v>43497</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2199423814033189</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.317050004638069</v>
-      </c>
+        <v>0.3003917824074074</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -2918,11 +2776,9 @@
         <v>43525</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2138100562072336</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.3077202981414975</v>
-      </c>
+        <v>0.281125</v>
+      </c>
+      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -2931,11 +2787,9 @@
       <c r="B179" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="C179" t="n">
-        <v>0.2838390897196604</v>
-      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>0.3276342592687523</v>
+        <v>0.3401926752107397</v>
       </c>
     </row>
     <row r="180">
@@ -2945,11 +2799,9 @@
       <c r="B180" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="C180" t="n">
-        <v>0.3315284449509117</v>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>0.3666582352717376</v>
+        <v>0.3451691906728497</v>
       </c>
     </row>
     <row r="181">
@@ -2959,11 +2811,9 @@
       <c r="B181" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="C181" t="n">
-        <v>0.3003917824074074</v>
-      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>0.396483750667681</v>
+        <v>0.3536797306495444</v>
       </c>
     </row>
     <row r="182">
@@ -2973,11 +2823,9 @@
       <c r="B182" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="C182" t="n">
-        <v>0.281125</v>
-      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>0.3960264242243895</v>
+        <v>0.3638199142934355</v>
       </c>
     </row>
   </sheetData>
